--- a/doc/极配问问_微信前端接口说明_V0.2_160712.xlsx
+++ b/doc/极配问问_微信前端接口说明_V0.2_160712.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="370">
   <si>
     <t>一、关于参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>4.区域信息</t>
-  </si>
-  <si>
-    <t>4.区域信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -341,12 +338,6 @@
   </si>
   <si>
     <t>21=请先发送验证码</t>
-  </si>
-  <si>
-    <t>22=验证码过期</t>
-  </si>
-  <si>
-    <t>23=验证吗错误</t>
   </si>
   <si>
     <t>统一返回码</t>
@@ -499,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绑定手机，生成用户（如openId已被绑定则update手机号--改绑手机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信端通过页面授权码code请求token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,13 +529,869 @@
   </si>
   <si>
     <t>1.用户授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考系统结果代码列表（返回码：12、13）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r：绑定手机；  f：找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.快递公司获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.快递公司获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单路由模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取支持查询路由信息的快递公司</t>
+  </si>
+  <si>
+    <t>获取支持查询路由信息的快递公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipperCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1=非微信端操作,拒绝访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.路由信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过快递公司、运单号码查询路由</t>
+  </si>
+  <si>
+    <t>通过快递公司、运单号码查询路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.路由信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户令牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipperCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递公司编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递公司编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogisticCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcceptTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcceptStation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBusinessID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipperCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogisticCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递公司编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流运单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：在途中； 3：签收； 4：问题件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询操作是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取不到运单路由数据的原因（Trace列表为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递鸟平台分配的使用者ID，忽略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数（JSON）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.快件清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex2u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收件模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户请求业务数据的用户唯一标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未完成（收/寄：未签收/未寄出）； 1：已完成（收/寄：已签收/已寄出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为空时，返回空列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识本条数据的Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快件状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waybillStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">快件状态：预约下单=0，已入库=1，已出库=2，已签收=3，滞留件=4，问题件=5，退回件=6，错分件=7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：自提件；  1：配送件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatchingWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0自取、1代拿、2隔天取、3白天送、4夜间送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waybillNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无订单返回空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送员/收件员手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄件人地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiverName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址文字信息（省市区详细地址之间用空格" "分隔）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.预约收件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户令牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户请求业务数据的用户唯一标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户地址Id或地址文字信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date类型转化为Long类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改收件方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据Id</t>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址簿模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：寄件地址；  1：收件地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市县(code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市区code之间用空格" "分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市县(文字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcdName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市区之间也用空格" "分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：false；  1：true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.设置地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/修改地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址Id为空时：新增一条地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址Id不为空且存在：修改该条信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址Id不为空且不存在：新增一条地址信息，并重新生成地址Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市县(code)</t>
+  </si>
+  <si>
+    <t>省市区code之间用空格" "分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市县(文字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省市区之间也用空格" "分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：false；  1：true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.删除地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据上级区域编码查询下级区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询区域码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=未绑定手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4=登录过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipperName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、用户接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、运单路由接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、我的收件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、地址簿接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2=页面授权码code失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3=页面授权无响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询手机号码绑定状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收件列表清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快件路由日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改收件方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址列表清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/修改地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址簿模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据上级区域编码查询下级区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcdName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.用户授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字段值</t>
+    <t>2.查询手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.绑定手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verificationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.快件清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verificationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户令牌</t>
+  </si>
+  <si>
+    <t>用户令牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机，生成用户，返回token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.改绑手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户绑定手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.验证码发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,65 +1399,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.查询手机</t>
-  </si>
-  <si>
-    <t>查询手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考系统结果代码列表（返回码：12、13）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.验证码发送</t>
-  </si>
-  <si>
-    <t>4.验证码发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r：绑定手机；  f：找回密码</t>
+    <t>bindingTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.改绑手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22=验证码过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23=验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.验证码发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,109 +1435,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.快递公司获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.快递公司获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>track</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运单路由模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取支持查询路由信息的快递公司</t>
-  </si>
-  <si>
-    <t>获取支持查询路由信息的快递公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipperCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1=非微信端操作,拒绝访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.路由信息查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过快递公司、运单号码查询路由</t>
-  </si>
-  <si>
-    <t>通过快递公司、运单号码查询路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.路由信息查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户令牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipperCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递公司编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递公司编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogisticCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追踪日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcceptTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcceptStation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
+    <t>ex2u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCompleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.运单路由追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.预约收件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -732,286 +1479,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBusinessID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipperCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogisticCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递公司编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流运单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功与否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：在途中； 3：签收； 4：问题件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询操作是否成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取不到运单路由数据的原因（Trace列表为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递鸟平台分配的使用者ID，忽略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回参数（JSON）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.快件清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.快件清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex2u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收件模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户令牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册用户请求业务数据的用户唯一标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：未完成（收/寄：未签收/未寄出）； 1：已完成（收/寄：已签收/已寄出）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为空时，返回空列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识本条数据的Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快件状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waybillStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">快件状态：预约下单=0，已入库=1，已出库=2，已签收=3，滞留件=4，问题件=5，退回件=6，错分件=7 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickupType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：自提件；  1：配送件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchingWay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0自取、1代拿、2隔天取、3白天送、4夜间送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waybillNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无订单返回空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送员/收件员手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ownerPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄件人地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiverName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址文字信息（省市区详细地址之间用空格" "分隔）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.运单路由追踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.预约收件</t>
-  </si>
-  <si>
-    <t>3.预约收件</t>
+    <t>代拿留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代拿人手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.地址清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1019,58 +1495,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户令牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册用户请求业务数据的用户唯一标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户地址Id或地址文字信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date类型转化为Long类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改收件方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据Id</t>
-  </si>
-  <si>
-    <t>0/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址簿模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：寄件地址；  1：收件地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址Id</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.设置地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.删除地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1078,368 +1511,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市县(code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市区code之间用空格" "分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市县(文字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcdName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市区之间也用空格" "分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否默认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：false；  1：true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.设置地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.设置地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加/修改地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址Id为空时：新增一条地址信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址Id不为空且存在：修改该条信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址Id不为空且不存在：新增一条地址信息，并重新生成地址Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市县(code)</t>
-  </si>
-  <si>
-    <t>省市区code之间用空格" "分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市县(文字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省市区之间也用空格" "分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：false；  1：true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.删除地址</t>
-  </si>
-  <si>
-    <t>3.删除地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据上级区域编码查询下级区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询区域码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.地址清单</t>
-  </si>
-  <si>
-    <t>respCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=操作成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=用户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2=未绑定手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3=参数错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4=登录过期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5=操作失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShipperName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>respCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>respMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、用户接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三、运单路由接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四、我的收件接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五、地址簿接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex2u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2=页面授权码code失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3=页面授权无响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bindingTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verificationCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.绑定手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询手机号码绑定状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex2u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收件列表清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isCompleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快件路由日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改收件方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dispatchingWay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appointTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的地址列表清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加/修改地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址簿模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据上级区域编码查询下级区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcdCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcdName</t>
+    <t>4.区域信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1592,7 +1664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1677,11 +1749,26 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,16 +1776,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1768,6 +1861,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2050,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2071,220 +2170,210 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1">
       <c r="B3" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1">
       <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="6" customFormat="1">
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1">
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1"/>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="6" customFormat="1">
       <c r="B11" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="6" customFormat="1">
       <c r="B12" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1">
       <c r="B13" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="6" t="s">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1">
+      <c r="B15" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" s="10" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6" t="s">
-        <v>95</v>
+      <c r="B33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="6" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="6" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2293,14 +2382,16 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="6" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -2309,16 +2400,14 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="6" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -2327,16 +2416,16 @@
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="6" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -2344,14 +2433,17 @@
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="2:12">
+      <c r="B39" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="C39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -2359,16 +2451,15 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="21" t="s">
-        <v>156</v>
-      </c>
       <c r="C40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -2376,12 +2467,28 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="21" t="s">
-        <v>314</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="21" t="s">
-        <v>315</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="21" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2500,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I74"/>
+  <dimension ref="B2:I93"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -2413,7 +2520,7 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="10" t="s">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2436,7 +2543,7 @@
     <row r="4" spans="2:9">
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -2448,7 +2555,7 @@
     <row r="5" spans="2:9">
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -2491,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>6</v>
@@ -2499,41 +2606,41 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:9" s="15" customFormat="1">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="15" customFormat="1">
+      <c r="C10" s="36"/>
+      <c r="D10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="15" customFormat="1">
-      <c r="C10" s="31"/>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -2542,19 +2649,19 @@
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="I11" s="10"/>
     </row>
@@ -2571,7 +2678,7 @@
     <row r="13" spans="2:9">
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2593,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>6</v>
@@ -2602,7 +2709,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="10"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -2615,7 +2722,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>20</v>
@@ -2624,7 +2731,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="10"/>
-      <c r="C16" s="32"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2635,14 +2742,14 @@
         <v>8</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="10"/>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -2655,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>18</v>
@@ -2664,7 +2771,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="10"/>
-      <c r="C18" s="33"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="7" t="s">
         <v>15</v>
       </c>
@@ -2675,10 +2782,10 @@
         <v>39</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -2694,12 +2801,12 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="C23" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -2709,7 +2816,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="C24" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2746,48 +2853,48 @@
         <v>5</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="C29" s="36"/>
+      <c r="D29" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="C29" s="31"/>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="F29" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -2795,16 +2902,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -2818,7 +2925,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="C32" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -2838,45 +2945,45 @@
         <v>5</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="C35" s="29"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H35" s="5"/>
     </row>
@@ -2890,12 +2997,12 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="C40" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -2905,7 +3012,7 @@
     </row>
     <row r="41" spans="2:8">
       <c r="C41" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -2922,7 +3029,7 @@
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="10" t="s">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -2931,110 +3038,110 @@
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="C45" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="C45" s="30" t="s">
+    </row>
+    <row r="46" spans="2:8">
+      <c r="C46" s="36"/>
+      <c r="D46" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="C46" s="31"/>
-      <c r="D46" s="16" t="s">
+      <c r="E46" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>318</v>
+      <c r="F46" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>341</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="C48" s="34"/>
-      <c r="D48" s="16" t="s">
+      <c r="C48" s="38"/>
+      <c r="D48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>118</v>
+      <c r="E48" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="C49" s="35"/>
-      <c r="D49" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="16" t="s">
+      <c r="C49" s="39"/>
+      <c r="D49" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49" s="29" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H49" s="17"/>
     </row>
@@ -3048,7 +3155,7 @@
     </row>
     <row r="51" spans="2:8">
       <c r="C51" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -3057,105 +3164,113 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="G52" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="31" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="C54" s="32"/>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="31" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="31" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="C56" s="33"/>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="41"/>
+      <c r="D56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="31" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="C57" s="34"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="6" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="C61" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
@@ -3165,7 +3280,7 @@
     </row>
     <row r="62" spans="2:8">
       <c r="C62" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -3182,7 +3297,7 @@
     </row>
     <row r="64" spans="2:8">
       <c r="C64" s="10" t="s">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
@@ -3190,7 +3305,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="3:8">
+    <row r="65" spans="2:8">
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
         <v>3</v>
@@ -3202,172 +3317,405 @@
         <v>5</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="30" t="s">
+    <row r="66" spans="2:8">
+      <c r="C66" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="C67" s="36"/>
+      <c r="D67" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="16" t="s">
+      <c r="E67" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="C68" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="C69" s="38"/>
+      <c r="D69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="C70" s="39"/>
+      <c r="D70" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="C72" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F66" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8">
-      <c r="C67" s="31"/>
-      <c r="D67" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8">
-      <c r="C68" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H68" s="17"/>
-    </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="29"/>
-      <c r="D69" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="3:8">
-      <c r="C72" s="7"/>
-      <c r="D72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H72" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="3:8">
-      <c r="C73" s="28" t="s">
+    <row r="74" spans="2:8">
+      <c r="C74" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8">
-      <c r="C74" s="29"/>
-      <c r="D74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H74" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="C75" s="40"/>
+      <c r="D75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="C80" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="C86" s="36"/>
+      <c r="D86" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="C87" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="3:8">
+      <c r="C88" s="40"/>
+      <c r="D88" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="3:8">
+      <c r="C90" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="3:8">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="C92" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="40"/>
+      <c r="D93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C74:C75"/>
     <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C68:C70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3399,7 +3747,7 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -3423,7 +3771,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3435,7 +3783,7 @@
     <row r="5" spans="2:10">
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -3468,10 +3816,10 @@
     <row r="8" spans="2:10">
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
@@ -3479,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>6</v>
@@ -3487,44 +3835,44 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="15"/>
-      <c r="C9" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="40"/>
+      <c r="C9" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="47"/>
       <c r="F9" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="15"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -3540,7 +3888,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3552,10 +3900,10 @@
     <row r="13" spans="2:10">
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="7" t="s">
         <v>4</v>
       </c>
@@ -3563,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>6</v>
@@ -3571,13 +3919,13 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
@@ -3585,7 +3933,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
@@ -3593,11 +3941,11 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="10"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
@@ -3605,19 +3953,19 @@
         <v>8</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="10"/>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="1" t="s">
         <v>49</v>
       </c>
@@ -3631,43 +3979,43 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="10"/>
-      <c r="C17" s="40"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="10"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="14"/>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="10" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -3690,7 +4038,7 @@
     <row r="23" spans="2:9">
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -3702,7 +4050,7 @@
     <row r="24" spans="2:9">
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -3735,10 +4083,10 @@
     <row r="27" spans="2:9">
       <c r="B27" s="10"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3746,7 +4094,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>6</v>
@@ -3754,81 +4102,81 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="15"/>
-      <c r="C28" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="40"/>
+      <c r="C28" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="47"/>
       <c r="F28" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="15"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="43" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="G29" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="15"/>
-      <c r="C30" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="38"/>
+      <c r="C30" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="45"/>
       <c r="F30" s="16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="15"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="38"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="45"/>
       <c r="F31" s="16" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I31" s="17"/>
     </row>
@@ -3845,7 +4193,7 @@
     <row r="33" spans="2:9">
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -3857,10 +4205,10 @@
     <row r="34" spans="2:9">
       <c r="B34" s="10"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="7" t="s">
         <v>4</v>
       </c>
@@ -3868,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>6</v>
@@ -3876,21 +4224,21 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="10"/>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="7" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>20</v>
@@ -3898,11 +4246,11 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="10"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="41" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="7" t="s">
         <v>13</v>
       </c>
@@ -3910,155 +4258,155 @@
         <v>8</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="10"/>
-      <c r="C37" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="42"/>
+      <c r="C37" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="49"/>
       <c r="F37" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="10"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="42"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="49"/>
       <c r="F38" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="10"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="42"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="49"/>
       <c r="F39" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="10"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="42"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="49"/>
       <c r="F40" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="10"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="42"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="49"/>
       <c r="F41" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="10"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="42"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="49"/>
       <c r="F42" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="10"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" s="42"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="49"/>
       <c r="F43" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="10"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="36"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="43"/>
       <c r="F44" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>14</v>
@@ -4070,55 +4418,55 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="10"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="10"/>
-      <c r="C46" s="40"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="14"/>
       <c r="E46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="10"/>
-      <c r="C47" s="40"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="14"/>
       <c r="E47" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I47" s="5"/>
     </row>
@@ -4163,7 +4511,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I81"/>
+  <dimension ref="B2:I82"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -4185,17 +4533,17 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="10" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="C4" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="C5" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -4208,10 +4556,10 @@
     </row>
     <row r="8" spans="2:9">
       <c r="C8" s="7"/>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
@@ -4219,7 +4567,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>6</v>
@@ -4227,99 +4575,99 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6"/>
-      <c r="C9" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="46"/>
+      <c r="C9" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="53"/>
       <c r="F9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6"/>
-      <c r="C11" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="47"/>
+      <c r="C11" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" s="54"/>
       <c r="F11" s="1" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.5">
       <c r="B12" s="6"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="47"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="54"/>
       <c r="F12" s="1" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="C15" s="7"/>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="7" t="s">
         <v>4</v>
       </c>
@@ -4327,20 +4675,20 @@
         <v>5</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="42"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
@@ -4348,18 +4696,18 @@
         <v>8</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="32"/>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
@@ -4367,18 +4715,18 @@
         <v>8</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="3:9" s="6" customFormat="1">
-      <c r="C18" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="36"/>
+      <c r="C18" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="43"/>
       <c r="F18" s="1" t="s">
         <v>49</v>
       </c>
@@ -4387,14 +4735,14 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="3:9" s="6" customFormat="1">
-      <c r="C19" s="49"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="12"/>
       <c r="E19" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>35</v>
@@ -4403,220 +4751,220 @@
         <v>9</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="3:9" s="6" customFormat="1" ht="28.5">
-      <c r="C20" s="49"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="12"/>
       <c r="E20" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="3:9" s="6" customFormat="1">
-      <c r="C21" s="49"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="12"/>
       <c r="E21" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:9" s="6" customFormat="1" ht="42.75">
-      <c r="C22" s="49"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="12"/>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="3:9" s="6" customFormat="1">
-      <c r="C23" s="49"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="12"/>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="3:9" s="6" customFormat="1">
-      <c r="C24" s="49"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="12"/>
       <c r="E24" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="3:9" s="6" customFormat="1">
-      <c r="C25" s="49"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="3:9" s="6" customFormat="1">
-      <c r="C26" s="49"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="12"/>
       <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="3:9" s="6" customFormat="1">
-      <c r="C27" s="49"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="12"/>
       <c r="E27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="3:9" s="6" customFormat="1">
-      <c r="C28" s="49"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="12"/>
       <c r="E28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="3:9" s="6" customFormat="1">
-      <c r="C29" s="49"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="12"/>
       <c r="E29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="3:9" s="6" customFormat="1">
-      <c r="C30" s="49"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="12"/>
       <c r="E30" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="3:9" s="6" customFormat="1">
-      <c r="C31" s="49"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="12"/>
       <c r="E31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>33</v>
@@ -4625,112 +4973,112 @@
         <v>43</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="3:9" s="6" customFormat="1">
-      <c r="C32" s="49"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="12"/>
       <c r="E32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:9" s="6" customFormat="1">
-      <c r="C33" s="49"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="12"/>
       <c r="E33" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="6" customFormat="1">
-      <c r="C34" s="49"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="12"/>
       <c r="E34" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" s="6" customFormat="1">
-      <c r="C35" s="49"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="12"/>
       <c r="E35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9" s="6" customFormat="1">
-      <c r="C36" s="50"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="12"/>
       <c r="E36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="10" t="s">
-        <v>239</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="C41" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="C42" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -4743,10 +5091,10 @@
     </row>
     <row r="45" spans="2:9">
       <c r="C45" s="7"/>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="47"/>
+      <c r="E45" s="54"/>
       <c r="F45" s="7" t="s">
         <v>4</v>
       </c>
@@ -4754,7 +5102,7 @@
         <v>5</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>6</v>
@@ -4762,81 +5110,81 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="6"/>
-      <c r="C46" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="46"/>
+      <c r="C46" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="53"/>
       <c r="F46" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="6"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="41" t="s">
+      <c r="C47" s="40"/>
+      <c r="D47" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G47" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="2:9" s="15" customFormat="1">
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="45"/>
+      <c r="D48" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="52"/>
       <c r="F48" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="2:9" s="15" customFormat="1">
-      <c r="C49" s="35"/>
-      <c r="D49" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" s="45"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="52"/>
       <c r="F49" s="20" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>36</v>
@@ -4844,15 +5192,15 @@
     </row>
     <row r="51" spans="2:9">
       <c r="C51" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="C52" s="7"/>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="42"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="7" t="s">
         <v>4</v>
       </c>
@@ -4860,20 +5208,20 @@
         <v>5</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="42"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="7" t="s">
         <v>12</v>
       </c>
@@ -4881,18 +5229,18 @@
         <v>8</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="C54" s="32"/>
-      <c r="D54" s="41" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="42"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="7" t="s">
         <v>13</v>
       </c>
@@ -4900,34 +5248,34 @@
         <v>8</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="2:9" s="15" customFormat="1">
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55" s="37"/>
+      <c r="D55" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="44"/>
       <c r="F55" s="20" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="2:9" s="15" customFormat="1">
-      <c r="C56" s="40"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="23"/>
       <c r="E56" s="20" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>51</v>
@@ -4936,14 +5284,14 @@
         <v>42</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="2:9" s="15" customFormat="1">
-      <c r="C57" s="40"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="23"/>
       <c r="E57" s="20" t="s">
         <v>6</v>
@@ -4955,23 +5303,23 @@
         <v>42</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I57" s="17"/>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="10" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="C62" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="C63" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -4984,10 +5332,10 @@
     </row>
     <row r="66" spans="3:9">
       <c r="C66" s="7"/>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="47"/>
+      <c r="E66" s="54"/>
       <c r="F66" s="7" t="s">
         <v>4</v>
       </c>
@@ -4995,268 +5343,290 @@
         <v>5</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="3:9">
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="53"/>
+      <c r="F67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68" s="40"/>
+      <c r="D68" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9">
-      <c r="C68" s="29"/>
-      <c r="D68" s="41" t="s">
+      <c r="E68" s="49"/>
+      <c r="F68" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G68" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="3:9">
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" s="54"/>
+      <c r="D69" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="61"/>
       <c r="F69" s="1" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="3:9">
-      <c r="C70" s="54"/>
-      <c r="D70" s="54" t="s">
+      <c r="C70" s="61"/>
+      <c r="D70" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="54"/>
+      <c r="E70" s="61"/>
       <c r="F70" s="1" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="3:9">
-      <c r="C71" s="54"/>
-      <c r="D71" s="36" t="s">
+      <c r="C71" s="61"/>
+      <c r="D71" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="36"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="1" t="s">
-        <v>337</v>
+        <v>215</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="3:9">
-      <c r="C72" s="46"/>
-      <c r="D72" s="55" t="s">
+      <c r="C72" s="53"/>
+      <c r="D72" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="55"/>
+      <c r="E72" s="62"/>
       <c r="F72" s="3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="3:9">
-      <c r="C73" s="46"/>
-      <c r="D73" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E73" s="55"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="E73" s="62"/>
       <c r="F73" s="3" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I73" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="74" spans="3:9">
-      <c r="C74" s="46"/>
-      <c r="D74" s="55" t="s">
+      <c r="C74" s="53"/>
+      <c r="D74" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E74" s="55"/>
+      <c r="E74" s="62"/>
       <c r="F74" s="3" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="3:9">
-      <c r="C75" s="46"/>
-      <c r="D75" s="55" t="s">
+      <c r="C75" s="53"/>
+      <c r="D75" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" s="67"/>
+      <c r="F75" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="53"/>
+      <c r="D76" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E75" s="55"/>
-      <c r="F75" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9">
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="78" spans="3:9">
-      <c r="C78" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="E76" s="62"/>
+      <c r="F76" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="79" spans="3:9">
-      <c r="C79" s="7"/>
-      <c r="D79" s="41" t="s">
+      <c r="C79" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80" s="7"/>
+      <c r="D80" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="7" t="s">
+      <c r="E80" s="49"/>
+      <c r="F80" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I79" s="7" t="s">
+      <c r="H80" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I80" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="3:9">
-      <c r="C80" s="28" t="s">
+    <row r="81" spans="3:9">
+      <c r="C81" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D81" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="42"/>
-      <c r="F80" s="7" t="s">
+      <c r="E81" s="49"/>
+      <c r="F81" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9">
-      <c r="C81" s="29"/>
-      <c r="D81" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="42"/>
-      <c r="F81" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I81" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="40"/>
+      <c r="D82" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="49"/>
+      <c r="F82" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C80:C81"/>
+  <mergeCells count="43">
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="C69:C76"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="C46:C47"/>
@@ -5298,7 +5668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -5318,17 +5688,17 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="10" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="C4" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="C5" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -5341,10 +5711,10 @@
     </row>
     <row r="8" spans="2:9">
       <c r="C8" s="7"/>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5352,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>6</v>
@@ -5360,62 +5730,62 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6"/>
-      <c r="C9" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="46"/>
+      <c r="C9" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="53"/>
       <c r="F9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="6"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="15" customFormat="1">
       <c r="C11" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="45"/>
+        <v>200</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="52"/>
       <c r="F11" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>18</v>
@@ -5423,15 +5793,15 @@
     </row>
     <row r="13" spans="2:9">
       <c r="C13" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" s="7"/>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5439,20 +5809,20 @@
         <v>5</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
@@ -5460,18 +5830,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="C16" s="32"/>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="42"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
@@ -5479,48 +5849,48 @@
         <v>8</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" s="15" customFormat="1">
-      <c r="C17" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="37"/>
+      <c r="C17" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="44"/>
       <c r="F17" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="15" customFormat="1">
-      <c r="C18" s="56"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="23"/>
       <c r="E18" s="20" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="2:9" s="15" customFormat="1">
-      <c r="C19" s="56"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="23"/>
       <c r="E19" s="20" t="s">
         <v>22</v>
@@ -5532,32 +5902,32 @@
         <v>9</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:9" s="15" customFormat="1">
-      <c r="C20" s="56"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="2:9" s="15" customFormat="1">
-      <c r="C21" s="56"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="23"/>
       <c r="E21" s="20" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>55</v>
@@ -5566,114 +5936,114 @@
         <v>9</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="2:9" s="15" customFormat="1">
-      <c r="C22" s="56"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="15" customFormat="1">
-      <c r="C23" s="56"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="23"/>
       <c r="E23" s="24" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I23" s="26"/>
     </row>
     <row r="24" spans="2:9" s="15" customFormat="1">
-      <c r="C24" s="56"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="23"/>
       <c r="E24" s="24" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="2:9" s="15" customFormat="1">
-      <c r="C25" s="57"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="23"/>
       <c r="E25" s="24" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="10" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="2:9" customFormat="1">
       <c r="C29" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="2:9" customFormat="1">
       <c r="C30" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="2:9" customFormat="1">
       <c r="C31" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="C33" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="C34" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -5686,10 +6056,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="C37" s="7"/>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="36"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="7" t="s">
         <v>4</v>
       </c>
@@ -5697,71 +6067,71 @@
         <v>5</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="6"/>
-      <c r="C38" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="46"/>
+      <c r="C38" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="53"/>
       <c r="F38" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="6"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39" t="s">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="15"/>
-      <c r="C40" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="37"/>
+      <c r="C40" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="44"/>
       <c r="F40" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I40" s="22" t="s">
         <v>18</v>
@@ -5769,19 +6139,19 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="15"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="37"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="20" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I41" s="22" t="s">
         <v>24</v>
@@ -5789,149 +6159,149 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="15"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="E42" s="37"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="44"/>
       <c r="F42" s="20" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I42" s="22"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="15"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" s="58"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="65"/>
       <c r="F43" s="24" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I43" s="26"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="15"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="37"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="44"/>
       <c r="F44" s="20" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="15"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="E45" s="58"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="65"/>
       <c r="F45" s="24" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="15"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="E46" s="58"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="65"/>
       <c r="F46" s="24" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I46" s="26"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="15"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="58" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="58"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="G47" s="20" t="s">
-        <v>287</v>
-      </c>
       <c r="H47" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="15"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="58" t="s">
+      <c r="C48" s="47"/>
+      <c r="D48" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="58"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="24" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="C50" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="C51" s="7"/>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="7" t="s">
         <v>4</v>
       </c>
@@ -5939,20 +6309,20 @@
         <v>5</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:9">
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="39"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="7" t="s">
         <v>12</v>
       </c>
@@ -5960,18 +6330,18 @@
         <v>8</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="C53" s="39"/>
-      <c r="D53" s="39" t="s">
+      <c r="C53" s="46"/>
+      <c r="D53" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="39"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="7" t="s">
         <v>13</v>
       </c>
@@ -5979,43 +6349,43 @@
         <v>8</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="15"/>
       <c r="C54" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="E54" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="44"/>
       <c r="F54" s="20" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I54" s="17"/>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="10" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="C59" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="C60" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -6028,10 +6398,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="C63" s="7"/>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="36"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="7" t="s">
         <v>4</v>
       </c>
@@ -6039,101 +6409,101 @@
         <v>5</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:9">
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="53"/>
+      <c r="F64" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="C65" s="46"/>
+      <c r="D65" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="46"/>
-      <c r="F64" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="C65" s="39"/>
-      <c r="D65" s="39" t="s">
+      <c r="E65" s="46"/>
+      <c r="F65" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G65" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="2:9">
-      <c r="C66" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="37"/>
+      <c r="C66" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="44"/>
       <c r="F66" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I66" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="2:9">
-      <c r="C67" s="37"/>
-      <c r="D67" s="37" t="s">
+      <c r="C67" s="44"/>
+      <c r="D67" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="37"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="20" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I67" s="22"/>
     </row>
     <row r="69" spans="2:9">
       <c r="C69" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="C70" s="7"/>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="42"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="7" t="s">
         <v>4</v>
       </c>
@@ -6141,20 +6511,20 @@
         <v>5</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="39" t="s">
+      <c r="D71" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="39"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="7" t="s">
         <v>12</v>
       </c>
@@ -6162,18 +6532,18 @@
         <v>8</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="2:9">
-      <c r="C72" s="39"/>
-      <c r="D72" s="39" t="s">
+      <c r="C72" s="46"/>
+      <c r="D72" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="39"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="7" t="s">
         <v>13</v>
       </c>
@@ -6181,23 +6551,23 @@
         <v>8</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I72" s="5"/>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="10" t="s">
-        <v>56</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="C77" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="C78" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -6210,10 +6580,10 @@
     </row>
     <row r="81" spans="3:9">
       <c r="C81" s="7"/>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="36"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="7" t="s">
         <v>4</v>
       </c>
@@ -6221,103 +6591,103 @@
         <v>5</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="3:9">
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="53"/>
+      <c r="F82" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="C83" s="46"/>
+      <c r="D83" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" s="46"/>
-      <c r="F82" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9">
-      <c r="C83" s="39"/>
-      <c r="D83" s="39" t="s">
+      <c r="E83" s="46"/>
+      <c r="F83" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="39"/>
-      <c r="F83" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G83" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="3:9">
-      <c r="C84" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E84" s="37"/>
+      <c r="C84" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="44"/>
       <c r="F84" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G84" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I84" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="85" spans="3:9">
-      <c r="C85" s="37"/>
-      <c r="D85" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="E85" s="45"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" s="52"/>
       <c r="F85" s="20" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="G85" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="3:9">
       <c r="C87" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="3:9">
       <c r="C88" s="7"/>
-      <c r="D88" s="41" t="s">
+      <c r="D88" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="42"/>
+      <c r="E88" s="49"/>
       <c r="F88" s="7" t="s">
         <v>4</v>
       </c>
@@ -6325,20 +6695,20 @@
         <v>5</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="3:9">
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="41" t="s">
+      <c r="D89" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="42"/>
+      <c r="E89" s="49"/>
       <c r="F89" s="7" t="s">
         <v>12</v>
       </c>
@@ -6346,18 +6716,18 @@
         <v>8</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="90" spans="3:9">
-      <c r="C90" s="32"/>
-      <c r="D90" s="41" t="s">
+      <c r="C90" s="42"/>
+      <c r="D90" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="42"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="7" t="s">
         <v>13</v>
       </c>
@@ -6365,18 +6735,18 @@
         <v>8</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="3:9">
-      <c r="C91" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="E91" s="37"/>
+      <c r="C91" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="44"/>
       <c r="F91" s="20" t="s">
         <v>49</v>
       </c>
@@ -6389,27 +6759,27 @@
       </c>
     </row>
     <row r="92" spans="3:9">
-      <c r="C92" s="56"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="23"/>
       <c r="E92" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F92" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I92" s="17"/>
     </row>
     <row r="93" spans="3:9">
-      <c r="C93" s="57"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="23"/>
       <c r="E93" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F93" s="20" t="s">
         <v>41</v>
@@ -6418,7 +6788,7 @@
         <v>9</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I93" s="17"/>
     </row>
